--- a/Model_setup/Demand/Hourly_demand.xlsx
+++ b/Model_setup/Demand/Hourly_demand.xlsx
@@ -362,8 +362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="C339" sqref="C339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9158,28 +9158,36 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>4749</v>
+        <f>ROUND(((A338+A340)/2),0)</f>
+        <v>2426</v>
       </c>
       <c r="B339">
-        <v>1900</v>
+        <f t="shared" ref="B339:H339" si="0">ROUND(((B338+B340)/2),0)</f>
+        <v>963</v>
       </c>
       <c r="C339">
-        <v>4129</v>
+        <f t="shared" si="0"/>
+        <v>2105</v>
       </c>
       <c r="D339">
-        <v>1740</v>
+        <f t="shared" si="0"/>
+        <v>893</v>
       </c>
       <c r="E339">
-        <v>1299</v>
+        <f t="shared" si="0"/>
+        <v>662</v>
       </c>
       <c r="F339">
-        <v>2363</v>
+        <f t="shared" si="0"/>
+        <v>1210</v>
       </c>
       <c r="G339">
-        <v>956</v>
+        <f t="shared" si="0"/>
+        <v>485</v>
       </c>
       <c r="H339">
-        <v>2806</v>
+        <f t="shared" si="0"/>
+        <v>1427</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
